--- a/others/documentation/management/sem3_PI_2024-2025_TeamSelf-Assessment-sprint3.xlsx
+++ b/others/documentation/management/sem3_PI_2024-2025_TeamSelf-Assessment-sprint3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Desktop\ISEP\LAPR3\sem3-pi-2024_25_G081\others\documentation\management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp.sharepoint.com/teams/LAPR3-2DG-DH_20242025-ISEP365Group-081_/Shared Documents/G081_FOURCORP/Entregas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{923F187F-B288-4B61-9CAE-133796FFB086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="681" documentId="13_ncr:1_{802A170C-3CC1-4949-837B-425EC5D8B4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB361F87-5562-B04C-9670-72698F4170BC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,9 @@
   <commentList>
     <comment ref="A5" authorId="0" shapeId="0" xr:uid="{6BAF2E2E-33D1-44DF-B745-43730409185A}">
       <text>
-        <t>[Comentário por tópicos]
-A sua versão do Excel permite-lhe ler este comentário por tópicos. No entanto, as edições feitas ao comentário serão removidas se o ficheiro for aberto numa versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Proposta: Documentation em vez de "Project Report &amp; Documentation"</t>
       </text>
     </comment>
@@ -1977,37 +1977,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.97265625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.09765625" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="12" width="7.8984375" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="15.53515625" customWidth="1"/>
+    <col min="4" max="12" width="7.890625" customWidth="1"/>
+    <col min="13" max="13" width="8.01171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
         <v>2</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2026,8 +2026,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:15" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:15" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="78" t="s">
@@ -2042,7 +2042,7 @@
       <c r="L8" s="79"/>
       <c r="M8" s="80"/>
     </row>
-    <row r="9" spans="1:15" ht="105.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="105.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="31" t="str">
@@ -2081,7 +2081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="B10" s="76" t="s">
         <v>8</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="B11" s="77"/>
       <c r="C11" s="6" t="s">
         <v>10</v>
@@ -2138,7 +2138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="B12" s="77"/>
       <c r="C12" s="6" t="s">
         <v>12</v>
@@ -2164,25 +2164,33 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="B13" s="77"/>
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="30"/>
+      <c r="D13" s="68">
+        <v>5</v>
+      </c>
+      <c r="E13" s="68">
+        <v>4</v>
+      </c>
+      <c r="F13" s="69">
+        <v>3</v>
+      </c>
+      <c r="G13" s="30">
+        <v>3</v>
+      </c>
       <c r="H13" s="71"/>
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
       <c r="K13" s="68"/>
-      <c r="L13" s="37" t="e">
+      <c r="L13" s="37">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="77"/>
       <c r="C14" s="6" t="s">
         <v>14</v>
@@ -2200,7 +2208,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="77"/>
       <c r="C15" s="6" t="s">
         <v>15</v>
@@ -2218,7 +2226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="77"/>
       <c r="C16" s="6" t="s">
         <v>16</v>
@@ -2236,7 +2244,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="77"/>
       <c r="C17" s="6" t="s">
         <v>17</v>
@@ -2254,14 +2262,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="35">
         <f>AVERAGE(D10:D17)</f>
-        <v>4.666666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="E18" s="35">
         <f t="shared" ref="E18:K18" si="1">AVERAGE(E10:E17)</f>
@@ -2293,7 +2301,7 @@
       </c>
       <c r="L18" s="38"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
         <v>18</v>
       </c>
@@ -2309,7 +2317,7 @@
       <c r="K20" s="46"/>
       <c r="L20" s="47"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="55"/>
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
@@ -2323,7 +2331,7 @@
       <c r="K21" s="49"/>
       <c r="L21" s="50"/>
     </row>
-    <row r="22" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
         <v>19</v>
       </c>
@@ -2339,7 +2347,7 @@
       <c r="K22" s="49"/>
       <c r="L22" s="50"/>
     </row>
-    <row r="23" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51" t="s">
         <v>20</v>
       </c>
@@ -2355,7 +2363,7 @@
       <c r="K23" s="49"/>
       <c r="L23" s="50"/>
     </row>
-    <row r="24" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="48" t="s">
         <v>21</v>
       </c>
@@ -2371,7 +2379,7 @@
       <c r="K24" s="49"/>
       <c r="L24" s="50"/>
     </row>
-    <row r="25" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48">
         <v>0</v>
       </c>
@@ -2389,7 +2397,7 @@
       <c r="K25" s="49"/>
       <c r="L25" s="50"/>
     </row>
-    <row r="26" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48">
         <v>1</v>
       </c>
@@ -2409,7 +2417,7 @@
       <c r="K26" s="49"/>
       <c r="L26" s="50"/>
     </row>
-    <row r="27" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48">
         <v>2</v>
       </c>
@@ -2429,7 +2437,7 @@
       <c r="K27" s="49"/>
       <c r="L27" s="50"/>
     </row>
-    <row r="28" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48">
         <v>3</v>
       </c>
@@ -2449,7 +2457,7 @@
       <c r="K28" s="49"/>
       <c r="L28" s="50"/>
     </row>
-    <row r="29" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="48">
         <v>4</v>
       </c>
@@ -2467,7 +2475,7 @@
       <c r="K29" s="49"/>
       <c r="L29" s="50"/>
     </row>
-    <row r="30" spans="1:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52">
         <v>5</v>
       </c>
@@ -2508,25 +2516,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="D34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.09765625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="10" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="10" width="27.49609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="76" t="s">
         <v>32</v>
       </c>
@@ -2558,7 +2566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="77"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -2582,7 +2590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="77"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -2606,7 +2614,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="103.5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>48</v>
       </c>
@@ -2638,7 +2646,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>51</v>
       </c>
@@ -2668,7 +2676,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>52</v>
       </c>
@@ -2676,7 +2684,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="10" t="s">
@@ -2698,7 +2706,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>53</v>
       </c>
@@ -2728,7 +2736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>55</v>
       </c>
@@ -2758,7 +2766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>56</v>
       </c>
@@ -2790,7 +2798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>58</v>
       </c>
@@ -2820,7 +2828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>59</v>
       </c>
@@ -2852,7 +2860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
@@ -2884,7 +2892,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2916,7 +2924,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>62</v>
       </c>
@@ -2948,7 +2956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2980,7 +2988,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>64</v>
       </c>
@@ -3012,7 +3020,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>65</v>
       </c>
@@ -3042,7 +3050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>66</v>
       </c>
@@ -3074,13 +3082,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D21" s="44"/>
       <c r="E21" s="10" t="s">
@@ -3102,7 +3110,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>68</v>
       </c>
@@ -3134,7 +3142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>69</v>
       </c>
@@ -3166,7 +3174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>70</v>
       </c>
@@ -3196,7 +3204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>71</v>
       </c>
@@ -3226,7 +3234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>72</v>
       </c>
@@ -3258,7 +3266,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>73</v>
       </c>
@@ -3288,7 +3296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>74</v>
       </c>
@@ -3318,13 +3326,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29" s="44"/>
       <c r="E29" s="10" t="s">
@@ -3346,13 +3354,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="10" t="s">
@@ -3374,7 +3382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>77</v>
       </c>
@@ -3406,7 +3414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>78</v>
       </c>
@@ -3436,7 +3444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>79</v>
       </c>
@@ -3468,7 +3476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>80</v>
       </c>
@@ -3500,7 +3508,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>81</v>
       </c>
@@ -3532,7 +3540,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>82</v>
       </c>
@@ -3607,20 +3615,20 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="8.69921875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="17.3984375" style="60" customWidth="1"/>
-    <col min="19" max="19" width="36.69921875" style="60" customWidth="1"/>
-    <col min="20" max="20" width="17.3984375" style="60" customWidth="1"/>
+    <col min="1" max="1" width="14.91796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="8.75390625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="17.38671875" style="60" customWidth="1"/>
+    <col min="19" max="19" width="36.74609375" style="60" customWidth="1"/>
+    <col min="20" max="20" width="17.38671875" style="60" customWidth="1"/>
     <col min="21" max="21" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.8984375" style="1"/>
+    <col min="22" max="16384" width="10.8515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>83</v>
       </c>
@@ -3634,8 +3642,8 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:20" s="59" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:20" s="59" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="57" t="s">
         <v>84</v>
       </c>
@@ -3709,7 +3717,7 @@
       </c>
       <c r="T3" s="60"/>
     </row>
-    <row r="4" spans="1:20" ht="36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>87</v>
       </c>
@@ -3749,7 +3757,7 @@
       <c r="R4" s="64"/>
       <c r="S4" s="65"/>
     </row>
-    <row r="5" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="66.75" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>94</v>
       </c>
@@ -3789,7 +3797,7 @@
       <c r="R5" s="64"/>
       <c r="S5" s="65"/>
     </row>
-    <row r="6" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="55.5" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>101</v>
       </c>
@@ -3829,7 +3837,7 @@
       <c r="R6" s="64"/>
       <c r="S6" s="65"/>
     </row>
-    <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>107</v>
       </c>
@@ -3869,7 +3877,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="65"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>113</v>
       </c>
@@ -3919,7 +3927,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="65"/>
     </row>
-    <row r="9" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>114</v>
       </c>
@@ -3966,7 +3974,7 @@
       <c r="R9" s="66"/>
       <c r="S9" s="67"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
   </sheetData>
@@ -3990,21 +3998,21 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="10.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.91796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="10.234375" style="1" customWidth="1"/>
     <col min="12" max="13" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="20.59765625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="47.19921875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5078125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="20.58984375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.97265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.2265625" style="1" customWidth="1"/>
     <col min="20" max="21" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.8984375" style="1"/>
+    <col min="22" max="16384" width="10.8515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>115</v>
       </c>
@@ -4018,7 +4026,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="3" spans="1:19" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="112.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>84</v>
       </c>
@@ -4091,7 +4099,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>116</v>
       </c>
@@ -4131,7 +4139,7 @@
       <c r="R4" s="40"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>123</v>
       </c>
@@ -4171,7 +4179,7 @@
       <c r="R5" s="40"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>130</v>
       </c>
@@ -4211,7 +4219,7 @@
       <c r="R6" s="40"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>137</v>
       </c>
@@ -4251,7 +4259,7 @@
       <c r="R7" s="40"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="59.25" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>143</v>
       </c>
@@ -4291,7 +4299,7 @@
       <c r="R8" s="40"/>
       <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="59.25" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>149</v>
       </c>
@@ -4327,7 +4335,7 @@
       <c r="R9" s="40"/>
       <c r="S9" s="11"/>
     </row>
-    <row r="10" spans="1:19" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="74.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>154</v>
       </c>
@@ -4367,7 +4375,7 @@
       <c r="R10" s="40"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>160</v>
       </c>
@@ -4407,7 +4415,7 @@
       <c r="R11" s="40"/>
       <c r="S11" s="11"/>
     </row>
-    <row r="12" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>166</v>
       </c>
@@ -4447,7 +4455,7 @@
       <c r="R12" s="40"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="1:19" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>167</v>
       </c>
@@ -4487,7 +4495,7 @@
       <c r="R13" s="40"/>
       <c r="S13" s="11"/>
     </row>
-    <row r="14" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>174</v>
       </c>
@@ -4527,7 +4535,7 @@
       <c r="R14" s="40"/>
       <c r="S14" s="11"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>113</v>
       </c>
@@ -4577,7 +4585,7 @@
       <c r="R15" s="5"/>
       <c r="S15" s="11"/>
     </row>
-    <row r="16" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>114</v>
       </c>
@@ -4624,7 +4632,7 @@
       <c r="R16" s="19"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
     </row>
   </sheetData>
@@ -4639,6 +4647,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100499348A35650AE4B8915AE6103105856" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="253343b62a940d4b89f4f321c9cfdc58">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d08e2d8-5407-4d5d-a279-3bf7c39609d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67c15577550c4b6e4aca8a8f7cd31759" ns2:_="">
     <xsd:import namespace="5d08e2d8-5407-4d5d-a279-3bf7c39609d2"/>
@@ -4806,15 +4823,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4822,24 +4830,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D9590D-7925-4E79-B739-380A945A3870}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5d08e2d8-5407-4d5d-a279-3bf7c39609d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4847,18 +4837,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08D9590D-7925-4E79-B739-380A945A3870}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="5d08e2d8-5407-4d5d-a279-3bf7c39609d2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5d08e2d8-5407-4d5d-a279-3bf7c39609d2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>